--- a/biology/Zoologie/Dolichoderus_bruneti/Dolichoderus_bruneti.xlsx
+++ b/biology/Zoologie/Dolichoderus_bruneti/Dolichoderus_bruneti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichoderus bruneti est une espèce fossile de fourmis de la sous-famille des Dolichoderinae, de la tribu des Dolichoderini dans le genre Dolichoderus.
 </t>
@@ -511,16 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dolichoderus bruneti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. 
-Fossiles
-L'holotype R366, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel). 
-Cet holotype a deux cotypes R499 et R22 venant de la même collection et du même lieu, ainsi que les deux autres échantillons R333 (?) et R282 (?)[2].
-Confirmation du genre Dolichoderus
-L'espèce Dolichoderus affectus est confirmée dans le genre Dolichoderus en 2012 par le myrmécologue anglais Barry Bolton (1938-)[3]. 
-Étymologie
-L'épithète spécifique bruneti signifie en latin « brunes ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dolichoderus bruneti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -546,19 +553,208 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R366, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel). 
+Cet holotype a deux cotypes R499 et R22 venant de la même collection et du même lieu, ainsi que les deux autres échantillons R333 (?) et R282 (?).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Dolichoderus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dolichoderus affectus est confirmée dans le genre Dolichoderus en 2012 par le myrmécologue anglais Barry Bolton (1938-). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique bruneti signifie en latin « brunes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 2] : 
-« Insecte de couleur brunâtre. Tête subrectangulaire, un peu plus longue que large, bord postérieur un peu concave ; ocelles manquent ; yeux petits, placés vers le milieu de la tête ; mandibules grandes et saillantes. Thorax ovale, rétréci vers l'arrière, on y reconnaît le pronotum, méso- et métanotum. Pétiole court. Abdomen ovale, allongé, quatre segments; le premier segment montre les mêmes dépressions longitudinales que le ♂ de Euponera calcarea. »[2].
-Dimensions
-La longueur totale est de 8 mm[2].
-Affinités
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte de couleur brunâtre. Tête subrectangulaire, un peu plus longue que large, bord postérieur un peu concave ; ocelles manquent ; yeux petits, placés vers le milieu de la tête ; mandibules grandes et saillantes. Thorax ovale, rétréci vers l'arrière, on y reconnaît le pronotum, méso- et métanotum. Pétiole court. Abdomen ovale, allongé, quatre segments; le premier segment montre les mêmes dépressions longitudinales que le ♂ de Euponera calcarea. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_bruneti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Semble identique à Dolichoderus explicans, bien qu'étant de taille un peu plus petite. 
-Appartiennent à la même espèce R499,22 (pl XIV, fig. 13), ainsi que R333 (?) et R282 (?). »[2].
+Appartiennent à la même espèce R499,22 (pl XIV, fig. 13), ainsi que R333 (?) et R282 (?). ».
 </t>
         </is>
       </c>
